--- a/raw_data/20200818_saline/20200818_Sensor1_Test_91.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_91.xlsx
@@ -1,2095 +1,2511 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE23D88-4B22-4E8C-8770-3BABE563391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>81186.712893</v>
+        <v>81186.712893000004</v>
       </c>
       <c r="B2" s="1">
-        <v>22.551865</v>
+        <v>22.551864999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>906.701000</v>
+        <v>906.70100000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.939000</v>
+        <v>-200.93899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>81197.438911</v>
+        <v>81197.438911000005</v>
       </c>
       <c r="G2" s="1">
-        <v>22.554844</v>
+        <v>22.554843999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>925.360000</v>
+        <v>925.36</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.997000</v>
+        <v>-169.99700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>81207.925297</v>
+        <v>81207.925296999994</v>
       </c>
       <c r="L2" s="1">
-        <v>22.557757</v>
+        <v>22.557756999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>949.257000</v>
+        <v>949.25699999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.581000</v>
+        <v>-121.581</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>81218.744066</v>
+        <v>81218.744065999999</v>
       </c>
       <c r="Q2" s="1">
         <v>22.560762</v>
       </c>
       <c r="R2" s="1">
-        <v>956.443000</v>
+        <v>956.44299999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.144000</v>
+        <v>-105.14400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>81229.278566</v>
+        <v>81229.278565999994</v>
       </c>
       <c r="V2" s="1">
-        <v>22.563688</v>
+        <v>22.563687999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>963.427000</v>
+        <v>963.42700000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.867000</v>
+        <v>-89.867000000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>81239.445560</v>
+        <v>81239.445559999993</v>
       </c>
       <c r="AA2" s="1">
         <v>22.566513</v>
       </c>
       <c r="AB2" s="1">
-        <v>970.911000</v>
+        <v>970.91099999999994</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.902100</v>
+        <v>-77.902100000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>81249.313468</v>
+        <v>81249.313467999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.569254</v>
+        <v>22.569254000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>975.898000</v>
+        <v>975.89800000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.270300</v>
+        <v>-75.270300000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>81259.415981</v>
+        <v>81259.415980999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.572060</v>
+        <v>22.57206</v>
       </c>
       <c r="AL2" s="1">
-        <v>983.129000</v>
+        <v>983.12900000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.845000</v>
+        <v>-79.844999999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>81269.657407</v>
+        <v>81269.657407000006</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.574905</v>
+        <v>22.574905000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>991.306000</v>
+        <v>991.30600000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.115900</v>
+        <v>-91.115899999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>81280.438417</v>
+        <v>81280.438416999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.577900</v>
+        <v>22.5779</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.419000</v>
+        <v>-108.419</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>81291.809730</v>
+        <v>81291.809729999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.581058</v>
+        <v>22.581057999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.841000</v>
+        <v>-123.84099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>81302.762389</v>
+        <v>81302.762388999996</v>
       </c>
       <c r="BE2" s="1">
         <v>22.584101</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.390000</v>
+        <v>1048.3900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.676000</v>
+        <v>-194.67599999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>81313.765605</v>
+        <v>81313.765604999993</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.587157</v>
+        <v>22.587157000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1115.270000</v>
+        <v>1115.27</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.038000</v>
+        <v>-309.03800000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>81325.162717</v>
+        <v>81325.162716999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.590323</v>
+        <v>22.590323000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-488.154000</v>
+        <v>-488.154</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>81335.918424</v>
+        <v>81335.918424000003</v>
       </c>
       <c r="BT2" s="1">
         <v>22.593311</v>
       </c>
       <c r="BU2" s="1">
-        <v>1344.190000</v>
+        <v>1344.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-683.468000</v>
+        <v>-683.46799999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>81346.643915</v>
+        <v>81346.643914999993</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.596290</v>
+        <v>22.59629</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1478.750000</v>
+        <v>1478.75</v>
       </c>
       <c r="CA2" s="1">
-        <v>-891.283000</v>
+        <v>-891.28300000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>81358.212106</v>
+        <v>81358.212106000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.599503</v>
+        <v>22.599502999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1827.280000</v>
+        <v>1827.28</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1383.400000</v>
+        <v>-1383.4</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>81187.070014</v>
+        <v>81187.070013999997</v>
       </c>
       <c r="B3" s="1">
-        <v>22.551964</v>
+        <v>22.551964000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>906.818000</v>
+        <v>906.81799999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.772000</v>
+        <v>-200.77199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>81198.131790</v>
+        <v>81198.131789999999</v>
       </c>
       <c r="G3" s="1">
-        <v>22.555037</v>
+        <v>22.555036999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>925.104000</v>
+        <v>925.10400000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.329000</v>
+        <v>-170.32900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>81208.620224</v>
+        <v>81208.620223999998</v>
       </c>
       <c r="L3" s="1">
-        <v>22.557950</v>
+        <v>22.557950000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>949.210000</v>
+        <v>949.21</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.554000</v>
+        <v>-121.554</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>81219.162691</v>
+        <v>81219.162691000005</v>
       </c>
       <c r="Q3" s="1">
         <v>22.560879</v>
       </c>
       <c r="R3" s="1">
-        <v>956.471000</v>
+        <v>956.471</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.127000</v>
+        <v>-105.127</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>81229.629268</v>
+        <v>81229.629268000004</v>
       </c>
       <c r="V3" s="1">
         <v>22.563786</v>
       </c>
       <c r="W3" s="1">
-        <v>963.416000</v>
+        <v>963.41600000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.915500</v>
+        <v>-89.915499999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>81239.797719</v>
+        <v>81239.797718999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.566610</v>
+        <v>22.566610000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>970.832000</v>
+        <v>970.83199999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.915300</v>
+        <v>-77.915300000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>81249.691914</v>
+        <v>81249.691913999995</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.569359</v>
+        <v>22.569358999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>975.974000</v>
+        <v>975.97400000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.339500</v>
+        <v>-75.339500000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>81259.798892</v>
+        <v>81259.798892000006</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.572166</v>
+        <v>22.572165999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>983.115000</v>
+        <v>983.11500000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.826900</v>
+        <v>-79.826899999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>81270.079472</v>
+        <v>81270.079471999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.575022</v>
+        <v>22.575022000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>991.311000</v>
+        <v>991.31100000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.099400</v>
+        <v>-91.099400000000003</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>81281.158608</v>
+        <v>81281.158607999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.578100</v>
+        <v>22.578099999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.421000</v>
+        <v>-108.42100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>81292.216914</v>
+        <v>81292.216914000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.581171</v>
+        <v>22.581171000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.865000</v>
+        <v>-123.86499999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>81303.124468</v>
+        <v>81303.124467999995</v>
       </c>
       <c r="BE3" s="1">
         <v>22.584201</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.681000</v>
+        <v>-194.68100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>81314.145578</v>
+        <v>81314.145577999996</v>
       </c>
       <c r="BJ3" s="1">
         <v>22.587263</v>
       </c>
       <c r="BK3" s="1">
-        <v>1115.310000</v>
+        <v>1115.31</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.070000</v>
+        <v>-309.07</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>81325.585308</v>
+        <v>81325.585307999994</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.590440</v>
+        <v>22.590440000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-488.185000</v>
+        <v>-488.185</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>81336.359864</v>
+        <v>81336.359863999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.593433</v>
+        <v>22.593433000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1344.180000</v>
+        <v>1344.18</v>
       </c>
       <c r="BV3" s="1">
-        <v>-683.506000</v>
+        <v>-683.50599999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>81347.128009</v>
+        <v>81347.128008999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.596424</v>
+        <v>22.596423999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1478.660000</v>
+        <v>1478.66</v>
       </c>
       <c r="CA3" s="1">
-        <v>-891.345000</v>
+        <v>-891.34500000000003</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>81358.734394</v>
+        <v>81358.734393999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.599648</v>
+        <v>22.599647999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.650000</v>
+        <v>1828.65</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1382.920000</v>
+        <v>-1382.92</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>81187.734235</v>
+        <v>81187.734234999996</v>
       </c>
       <c r="B4" s="1">
-        <v>22.552148</v>
+        <v>22.552147999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>906.677000</v>
+        <v>906.67700000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.890000</v>
+        <v>-200.89</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>81198.507758</v>
+        <v>81198.507758000007</v>
       </c>
       <c r="G4" s="1">
-        <v>22.555141</v>
+        <v>22.555140999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>925.521000</v>
+        <v>925.52099999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.347000</v>
+        <v>-170.34700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>81209.000163</v>
+        <v>81209.000163000004</v>
       </c>
       <c r="L4" s="1">
-        <v>22.558056</v>
+        <v>22.558056000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>949.308000</v>
+        <v>949.30799999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.548000</v>
+        <v>-121.548</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>81219.514322</v>
+        <v>81219.514322000003</v>
       </c>
       <c r="Q4" s="1">
         <v>22.560976</v>
       </c>
       <c r="R4" s="1">
-        <v>956.485000</v>
+        <v>956.48500000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.155000</v>
+        <v>-105.155</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>81229.973968</v>
+        <v>81229.973968000006</v>
       </c>
       <c r="V4" s="1">
         <v>22.563882</v>
       </c>
       <c r="W4" s="1">
-        <v>963.392000</v>
+        <v>963.39200000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.809900</v>
+        <v>-89.809899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>81240.144918</v>
+        <v>81240.144918000005</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.566707</v>
+        <v>22.566707000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>970.822000</v>
+        <v>970.822</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.818500</v>
+        <v>-77.8185</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>81250.116033</v>
+        <v>81250.116032999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.569477</v>
+        <v>22.569476999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>975.713000</v>
+        <v>975.71299999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.497900</v>
+        <v>-75.497900000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>81260.219532</v>
+        <v>81260.219532000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.572283</v>
+        <v>22.572282999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>983.098000</v>
+        <v>983.09799999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.831400</v>
+        <v>-79.831400000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>81270.420223</v>
+        <v>81270.420222999994</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.575117</v>
+        <v>22.575116999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>991.308000</v>
+        <v>991.30799999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.072600</v>
+        <v>-91.072599999999994</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>81281.522674</v>
+        <v>81281.522674000007</v>
       </c>
       <c r="AU4" s="1">
         <v>22.578201</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>81292.575521</v>
+        <v>81292.575521000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.581271</v>
+        <v>22.581271000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>81303.487507</v>
+        <v>81303.487506999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.584302</v>
+        <v>22.584302000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.390000</v>
+        <v>1048.3900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.671000</v>
+        <v>-194.67099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>81314.518045</v>
+        <v>81314.518045000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.587366</v>
+        <v>22.587365999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1115.280000</v>
+        <v>1115.28</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.055000</v>
+        <v>-309.05500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>81326.008886</v>
+        <v>81326.008885999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.590558</v>
+        <v>22.590558000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-488.177000</v>
+        <v>-488.17700000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>81336.798137</v>
+        <v>81336.798137000005</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.593555</v>
+        <v>22.593554999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1344.120000</v>
+        <v>1344.12</v>
       </c>
       <c r="BV4" s="1">
-        <v>-683.461000</v>
+        <v>-683.46100000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>81347.577384</v>
+        <v>81347.577384000004</v>
       </c>
       <c r="BY4" s="1">
         <v>22.596549</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1478.720000</v>
+        <v>1478.72</v>
       </c>
       <c r="CA4" s="1">
-        <v>-891.367000</v>
+        <v>-891.36699999999996</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>81359.253211</v>
+        <v>81359.253211000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.599793</v>
+        <v>22.599792999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.530000</v>
+        <v>1828.53</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1382.860000</v>
+        <v>-1382.86</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>81188.097227</v>
+        <v>81188.097227000006</v>
       </c>
       <c r="B5" s="1">
         <v>22.552249</v>
       </c>
       <c r="C5" s="1">
-        <v>906.816000</v>
+        <v>906.81600000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.882000</v>
+        <v>-200.88200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>81198.850989</v>
+        <v>81198.850988999999</v>
       </c>
       <c r="G5" s="1">
-        <v>22.555236</v>
+        <v>22.555236000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>925.275000</v>
+        <v>925.27499999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.607000</v>
+        <v>-170.607</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>81209.344891</v>
+        <v>81209.344891000001</v>
       </c>
       <c r="L5" s="1">
-        <v>22.558151</v>
+        <v>22.558150999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>949.371000</v>
+        <v>949.37099999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.660000</v>
+        <v>-121.66</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>81219.863009</v>
+        <v>81219.863008999993</v>
       </c>
       <c r="Q5" s="1">
         <v>22.561073</v>
       </c>
       <c r="R5" s="1">
-        <v>956.458000</v>
+        <v>956.45799999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.187000</v>
+        <v>-105.187</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>81230.397541</v>
+        <v>81230.397540999998</v>
       </c>
       <c r="V5" s="1">
-        <v>22.563999</v>
+        <v>22.563998999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>963.443000</v>
+        <v>963.44299999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.893500</v>
+        <v>-89.893500000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>81240.571478</v>
+        <v>81240.571477999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.566825</v>
+        <v>22.566825000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>970.786000</v>
+        <v>970.78599999999994</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.876700</v>
+        <v>-77.8767</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>81250.380361</v>
+        <v>81250.380361000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.569550</v>
+        <v>22.56955</v>
       </c>
       <c r="AG5" s="1">
-        <v>975.708000</v>
+        <v>975.70799999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.473800</v>
+        <v>-75.473799999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>81260.518104</v>
+        <v>81260.518104000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.572366</v>
+        <v>22.572365999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>983.104000</v>
+        <v>983.10400000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.836400</v>
+        <v>-79.836399999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>81270.779823</v>
+        <v>81270.779823000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.575217</v>
+        <v>22.575216999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>991.313000</v>
+        <v>991.31299999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.051400</v>
+        <v>-91.051400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>81281.889712</v>
+        <v>81281.889712000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.578303</v>
+        <v>22.578302999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>81292.929170</v>
+        <v>81292.929170000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.581369</v>
+        <v>22.581368999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.853000</v>
+        <v>-123.85299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>81304.210177</v>
+        <v>81304.210177000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.584503</v>
+        <v>22.584503000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.685000</v>
+        <v>-194.685</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>81315.291832</v>
+        <v>81315.291832000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>22.587581</v>
       </c>
       <c r="BK5" s="1">
-        <v>1115.310000</v>
+        <v>1115.31</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.054000</v>
+        <v>-309.05399999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>81326.405653</v>
+        <v>81326.405652999994</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.590668</v>
+        <v>22.590668000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1223.390000</v>
+        <v>1223.3900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-488.191000</v>
+        <v>-488.19099999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>81337.225878</v>
+        <v>81337.225877999997</v>
       </c>
       <c r="BT5" s="1">
         <v>22.593674</v>
       </c>
       <c r="BU5" s="1">
-        <v>1344.140000</v>
+        <v>1344.14</v>
       </c>
       <c r="BV5" s="1">
-        <v>-683.520000</v>
+        <v>-683.52</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>81348.025768</v>
+        <v>81348.025768000007</v>
       </c>
       <c r="BY5" s="1">
         <v>22.596674</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1478.740000</v>
+        <v>1478.74</v>
       </c>
       <c r="CA5" s="1">
-        <v>-891.479000</v>
+        <v>-891.47900000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>81360.113274</v>
+        <v>81360.113274000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.600031</v>
+        <v>22.600031000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.010000</v>
+        <v>1828.01</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1383.410000</v>
+        <v>-1383.41</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>81188.445422</v>
+        <v>81188.445422000004</v>
       </c>
       <c r="B6" s="1">
         <v>22.552346</v>
       </c>
       <c r="C6" s="1">
-        <v>906.732000</v>
+        <v>906.73199999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.962000</v>
+        <v>-200.96199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>81199.200701</v>
+        <v>81199.200700999994</v>
       </c>
       <c r="G6" s="1">
-        <v>22.555334</v>
+        <v>22.555333999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>925.080000</v>
+        <v>925.08</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.369000</v>
+        <v>-170.369</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>81209.695520</v>
+        <v>81209.695519999994</v>
       </c>
       <c r="L6" s="1">
         <v>22.558249</v>
       </c>
       <c r="M6" s="1">
-        <v>949.368000</v>
+        <v>949.36800000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.635000</v>
+        <v>-121.63500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>81220.294529</v>
+        <v>81220.294529000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.561193</v>
+        <v>22.561192999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>956.470000</v>
+        <v>956.47</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.191000</v>
+        <v>-105.191</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>81230.674213</v>
+        <v>81230.674213000006</v>
       </c>
       <c r="V6" s="1">
         <v>22.564076</v>
       </c>
       <c r="W6" s="1">
-        <v>963.443000</v>
+        <v>963.44299999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.849000</v>
+        <v>-89.849000000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>81240.850727</v>
+        <v>81240.850726999997</v>
       </c>
       <c r="AA6" s="1">
         <v>22.566903</v>
       </c>
       <c r="AB6" s="1">
-        <v>970.863000</v>
+        <v>970.86300000000006</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.948400</v>
+        <v>-77.948400000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>81250.721623</v>
+        <v>81250.721623000005</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.569645</v>
+        <v>22.569645000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>975.715000</v>
+        <v>975.71500000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.469500</v>
+        <v>-75.469499999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>81260.866781</v>
+        <v>81260.866781000004</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.572463</v>
+        <v>22.572462999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>983.108000</v>
+        <v>983.10799999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.842500</v>
+        <v>-79.842500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>81271.138448</v>
+        <v>81271.138447999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.575316</v>
+        <v>22.575316000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>991.333000</v>
+        <v>991.33299999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.117000</v>
+        <v>-91.117000000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>81282.624784</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.578507</v>
+        <v>22.578506999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.250000</v>
+        <v>1001.25</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.421000</v>
+        <v>-108.42100000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>81293.648864</v>
+        <v>81293.648864000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.581569</v>
+        <v>22.581568999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.859000</v>
+        <v>-123.85899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>81304.600035</v>
+        <v>81304.600034999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.584611</v>
+        <v>22.584610999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.390000</v>
+        <v>1048.3900000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.671000</v>
+        <v>-194.67099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>81315.667268</v>
+        <v>81315.667268000005</v>
       </c>
       <c r="BJ6" s="1">
         <v>22.587685</v>
       </c>
       <c r="BK6" s="1">
-        <v>1115.280000</v>
+        <v>1115.28</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.065000</v>
+        <v>-309.065</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>81326.827785</v>
+        <v>81326.827785000001</v>
       </c>
       <c r="BO6" s="1">
         <v>22.590785</v>
       </c>
       <c r="BP6" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-488.217000</v>
+        <v>-488.21699999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>81337.946565</v>
+        <v>81337.946565000006</v>
       </c>
       <c r="BT6" s="1">
         <v>22.593874</v>
       </c>
       <c r="BU6" s="1">
-        <v>1344.150000</v>
+        <v>1344.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-683.604000</v>
+        <v>-683.60400000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>81348.761371</v>
+        <v>81348.761371000001</v>
       </c>
       <c r="BY6" s="1">
         <v>22.596878</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1478.810000</v>
+        <v>1478.81</v>
       </c>
       <c r="CA6" s="1">
-        <v>-891.474000</v>
+        <v>-891.47400000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>81360.332504</v>
+        <v>81360.332504000005</v>
       </c>
       <c r="CD6" s="1">
         <v>22.600092</v>
       </c>
       <c r="CE6" s="1">
-        <v>1827.910000</v>
+        <v>1827.91</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1382.300000</v>
+        <v>-1382.3</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>81188.788154</v>
+        <v>81188.788153999994</v>
       </c>
       <c r="B7" s="1">
-        <v>22.552441</v>
+        <v>22.552441000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>906.797000</v>
+        <v>906.79700000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.754000</v>
+        <v>-200.75399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>81199.627060</v>
+        <v>81199.627059999999</v>
       </c>
       <c r="G7" s="1">
-        <v>22.555452</v>
+        <v>22.555451999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>925.099000</v>
+        <v>925.09900000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.261000</v>
+        <v>-170.261</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>81210.138943</v>
+        <v>81210.138942999998</v>
       </c>
       <c r="L7" s="1">
-        <v>22.558372</v>
+        <v>22.558371999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>949.282000</v>
+        <v>949.28200000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.520000</v>
+        <v>-121.52</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>81220.570304</v>
+        <v>81220.570303999993</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.561270</v>
+        <v>22.56127</v>
       </c>
       <c r="R7" s="1">
-        <v>956.423000</v>
+        <v>956.423</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.175000</v>
+        <v>-105.175</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>81231.014102</v>
+        <v>81231.014102000001</v>
       </c>
       <c r="V7" s="1">
-        <v>22.564171</v>
+        <v>22.564171000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>963.402000</v>
+        <v>963.40200000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.862800</v>
+        <v>-89.862799999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>81241.199909</v>
+        <v>81241.199909000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.567000</v>
+        <v>22.567</v>
       </c>
       <c r="AB7" s="1">
-        <v>970.818000</v>
+        <v>970.81799999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.881000</v>
+        <v>-77.881</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>81251.065336</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.569740</v>
+        <v>22.569739999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>975.804000</v>
+        <v>975.80399999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.270300</v>
+        <v>-75.270300000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>81261.216459</v>
+        <v>81261.216459000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.572560</v>
+        <v>22.572559999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>983.117000</v>
+        <v>983.11699999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.854000</v>
+        <v>-79.853999999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>81271.857664</v>
+        <v>81271.857663999996</v>
       </c>
       <c r="AP7" s="1">
         <v>22.575516</v>
       </c>
       <c r="AQ7" s="1">
-        <v>991.299000</v>
+        <v>991.29899999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.081600</v>
+        <v>-91.081599999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>81283.007199</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.578613</v>
+        <v>22.578613000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.414000</v>
+        <v>-108.414</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>81294.008463</v>
+        <v>81294.008463000006</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.581669</v>
+        <v>22.581669000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>81304.960129</v>
+        <v>81304.960128999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.584711</v>
+        <v>22.584710999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.390000</v>
+        <v>1048.3900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.680000</v>
+        <v>-194.68</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>81316.352739</v>
+        <v>81316.352738999994</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.587876</v>
+        <v>22.587876000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1115.310000</v>
+        <v>1115.31</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.066000</v>
+        <v>-309.06599999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>81327.539043</v>
+        <v>81327.539042999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.590983</v>
+        <v>22.590983000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1223.370000</v>
+        <v>1223.3699999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-488.202000</v>
+        <v>-488.202</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>81338.069573</v>
+        <v>81338.069573000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.593908</v>
+        <v>22.593907999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1344.080000</v>
+        <v>1344.08</v>
       </c>
       <c r="BV7" s="1">
-        <v>-683.575000</v>
+        <v>-683.57500000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>81348.871944</v>
+        <v>81348.871943999999</v>
       </c>
       <c r="BY7" s="1">
         <v>22.596909</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1478.890000</v>
+        <v>1478.89</v>
       </c>
       <c r="CA7" s="1">
-        <v>-891.488000</v>
+        <v>-891.48800000000006</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>81360.849337</v>
+        <v>81360.849337000007</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.600236</v>
+        <v>22.600235999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.480000</v>
+        <v>1826.48</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1382.360000</v>
+        <v>-1382.36</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>81189.216202</v>
+        <v>81189.216201999996</v>
       </c>
       <c r="B8" s="1">
-        <v>22.552560</v>
+        <v>22.55256</v>
       </c>
       <c r="C8" s="1">
-        <v>906.880000</v>
+        <v>906.88</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.895000</v>
+        <v>-200.89500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>81199.911932</v>
+        <v>81199.911932000003</v>
       </c>
       <c r="G8" s="1">
-        <v>22.555531</v>
+        <v>22.555530999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>925.470000</v>
+        <v>925.47</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.690000</v>
+        <v>-170.69</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>81210.399838</v>
+        <v>81210.399837999998</v>
       </c>
       <c r="L8" s="1">
-        <v>22.558444</v>
+        <v>22.558444000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>949.155000</v>
+        <v>949.15499999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.613000</v>
+        <v>-121.613</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>81220.918001</v>
+        <v>81220.918000999998</v>
       </c>
       <c r="Q8" s="1">
         <v>22.561366</v>
       </c>
       <c r="R8" s="1">
-        <v>956.431000</v>
+        <v>956.43100000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.148000</v>
+        <v>-105.148</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>81231.360310</v>
+        <v>81231.360310000004</v>
       </c>
       <c r="V8" s="1">
-        <v>22.564267</v>
+        <v>22.564267000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>963.399000</v>
+        <v>963.399</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.818500</v>
+        <v>-89.8185</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>81241.547605</v>
@@ -2098,270 +2514,270 @@
         <v>22.567097</v>
       </c>
       <c r="AB8" s="1">
-        <v>970.865000</v>
+        <v>970.86500000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.867200</v>
+        <v>-77.867199999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>81251.742375</v>
+        <v>81251.742375000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.569928</v>
+        <v>22.569928000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>975.763000</v>
+        <v>975.76300000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.323300</v>
+        <v>-75.323300000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>81261.913340</v>
+        <v>81261.913339999999</v>
       </c>
       <c r="AK8" s="1">
         <v>22.572754</v>
       </c>
       <c r="AL8" s="1">
-        <v>983.132000</v>
+        <v>983.13199999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.835000</v>
+        <v>-79.834999999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>81272.220700</v>
+        <v>81272.220700000005</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.575617</v>
+        <v>22.575617000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>991.315000</v>
+        <v>991.31500000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.095600</v>
+        <v>-91.095600000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>81283.371262</v>
+        <v>81283.371262000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.578714</v>
+        <v>22.578714000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.398000</v>
+        <v>-108.398</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>81294.368559</v>
+        <v>81294.368558999995</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.581769</v>
+        <v>22.581769000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>81305.634362</v>
+        <v>81305.634361999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.584898</v>
+        <v>22.584897999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.400000</v>
+        <v>1048.4000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.697000</v>
+        <v>-194.697</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>81316.790209</v>
+        <v>81316.790208999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.587997</v>
+        <v>22.587997000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.061000</v>
+        <v>-309.06099999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>81327.648140</v>
+        <v>81327.648140000005</v>
       </c>
       <c r="BO8" s="1">
         <v>22.591013</v>
       </c>
       <c r="BP8" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-488.216000</v>
+        <v>-488.21600000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>81338.506091</v>
+        <v>81338.506091000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.594029</v>
+        <v>22.594028999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1344.060000</v>
+        <v>1344.06</v>
       </c>
       <c r="BV8" s="1">
-        <v>-683.613000</v>
+        <v>-683.61300000000006</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>81349.365958</v>
+        <v>81349.365957999995</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.597046</v>
+        <v>22.597045999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1478.700000</v>
+        <v>1478.7</v>
       </c>
       <c r="CA8" s="1">
-        <v>-891.453000</v>
+        <v>-891.45299999999997</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>81361.366664</v>
+        <v>81361.366664000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.600380</v>
+        <v>22.600380000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1826.880000</v>
+        <v>1826.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1383.410000</v>
+        <v>-1383.41</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>81189.489499</v>
+        <v>81189.489499000003</v>
       </c>
       <c r="B9" s="1">
         <v>22.552636</v>
       </c>
       <c r="C9" s="1">
-        <v>906.908000</v>
+        <v>906.90800000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.900000</v>
+        <v>-200.9</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>81200.258172</v>
+        <v>81200.258172000002</v>
       </c>
       <c r="G9" s="1">
-        <v>22.555627</v>
+        <v>22.555627000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>925.173000</v>
+        <v>925.173</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.628000</v>
+        <v>-170.62799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>81210.743567</v>
+        <v>81210.743566999998</v>
       </c>
       <c r="L9" s="1">
-        <v>22.558540</v>
+        <v>22.558540000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>949.325000</v>
+        <v>949.32500000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.586000</v>
+        <v>-121.586</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>81221.268176</v>
+        <v>81221.268175999998</v>
       </c>
       <c r="Q9" s="1">
         <v>22.561463</v>
       </c>
       <c r="R9" s="1">
-        <v>956.461000</v>
+        <v>956.46100000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.134000</v>
+        <v>-105.134</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>81232.045745</v>
+        <v>81232.045744999996</v>
       </c>
       <c r="V9" s="1">
-        <v>22.564457</v>
+        <v>22.564457000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>963.502000</v>
+        <v>963.50199999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.933200</v>
+        <v>-89.933199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>81242.246468</v>
+        <v>81242.246467999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.567291</v>
+        <v>22.567291000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>970.926000</v>
+        <v>970.92600000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.887400</v>
+        <v>-77.8874</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>81252.097511</v>
@@ -2370,3414 +2786,3414 @@
         <v>22.570027</v>
       </c>
       <c r="AG9" s="1">
-        <v>975.581000</v>
+        <v>975.58100000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.439200</v>
+        <v>-75.4392</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>81262.262523</v>
+        <v>81262.262522999998</v>
       </c>
       <c r="AK9" s="1">
         <v>22.572851</v>
       </c>
       <c r="AL9" s="1">
-        <v>983.103000</v>
+        <v>983.10299999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.831400</v>
+        <v>-79.831400000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>81272.580332</v>
+        <v>81272.580331999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.575717</v>
+        <v>22.575717000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>991.328000</v>
+        <v>991.32799999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.097400</v>
+        <v>-91.097399999999993</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>81284.046355</v>
+        <v>81284.046354999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.578902</v>
+        <v>22.578901999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.405000</v>
+        <v>-108.405</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>81295.040638</v>
+        <v>81295.040638000006</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.581956</v>
+        <v>22.581956000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.862000</v>
+        <v>-123.86199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>81306.071200</v>
+        <v>81306.071200000006</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.585020</v>
+        <v>22.58502</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.420000</v>
+        <v>1048.42</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.681000</v>
+        <v>-194.68100000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>81317.169153</v>
+        <v>81317.169152999995</v>
       </c>
       <c r="BJ9" s="1">
         <v>22.588103</v>
       </c>
       <c r="BK9" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.061000</v>
+        <v>-309.06099999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>81328.068242</v>
+        <v>81328.068241999994</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.591130</v>
+        <v>22.59113</v>
       </c>
       <c r="BP9" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-488.215000</v>
+        <v>-488.21499999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>81338.935092</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.594149</v>
+        <v>22.594149000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1344.060000</v>
+        <v>1344.06</v>
       </c>
       <c r="BV9" s="1">
-        <v>-683.684000</v>
+        <v>-683.68399999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>81349.942348</v>
+        <v>81349.942347999997</v>
       </c>
       <c r="BY9" s="1">
         <v>22.597206</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1478.830000</v>
+        <v>1478.83</v>
       </c>
       <c r="CA9" s="1">
-        <v>-891.394000</v>
+        <v>-891.39400000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>81361.883991</v>
+        <v>81361.883990999995</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.600523</v>
+        <v>22.600522999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1826.790000</v>
+        <v>1826.79</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1383.290000</v>
+        <v>-1383.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>81189.831241</v>
+        <v>81189.831241000007</v>
       </c>
       <c r="B10" s="1">
-        <v>22.552731</v>
+        <v>22.552731000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>906.606000</v>
+        <v>906.60599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.800000</v>
+        <v>-200.8</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>81200.601371</v>
+        <v>81200.601370999997</v>
       </c>
       <c r="G10" s="1">
         <v>22.555723</v>
       </c>
       <c r="H10" s="1">
-        <v>925.158000</v>
+        <v>925.15800000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.744000</v>
+        <v>-170.744</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>81211.416141</v>
+        <v>81211.416140999994</v>
       </c>
       <c r="L10" s="1">
-        <v>22.558727</v>
+        <v>22.558727000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>949.277000</v>
+        <v>949.27700000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.525000</v>
+        <v>-121.52500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>81221.960095</v>
+        <v>81221.960095000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.561656</v>
+        <v>22.561655999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>956.497000</v>
+        <v>956.49699999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.170000</v>
+        <v>-105.17</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>81232.388482</v>
+        <v>81232.388481999995</v>
       </c>
       <c r="V10" s="1">
-        <v>22.564552</v>
+        <v>22.564551999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>963.437000</v>
+        <v>963.43700000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.906700</v>
+        <v>-89.906700000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>81242.594691</v>
+        <v>81242.594691000006</v>
       </c>
       <c r="AA10" s="1">
         <v>22.567387</v>
       </c>
       <c r="AB10" s="1">
-        <v>970.915000</v>
+        <v>970.91499999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.916100</v>
+        <v>-77.9161</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>81252.445206</v>
+        <v>81252.445206000004</v>
       </c>
       <c r="AF10" s="1">
         <v>22.570124</v>
       </c>
       <c r="AG10" s="1">
-        <v>975.769000</v>
+        <v>975.76900000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.454400</v>
+        <v>-75.454400000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>81262.611705</v>
+        <v>81262.611705000003</v>
       </c>
       <c r="AK10" s="1">
         <v>22.572948</v>
       </c>
       <c r="AL10" s="1">
-        <v>983.112000</v>
+        <v>983.11199999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.830100</v>
+        <v>-79.830100000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>81273.256875</v>
+        <v>81273.256875000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.575905</v>
+        <v>22.575904999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>991.322000</v>
+        <v>991.322</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.096600</v>
+        <v>-91.096599999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>81284.491230</v>
+        <v>81284.49123</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.579025</v>
+        <v>22.579025000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>81295.444414</v>
+        <v>81295.444413999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>22.582068</v>
       </c>
       <c r="BA10" s="1">
-        <v>1009.550000</v>
+        <v>1009.55</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.858000</v>
+        <v>-123.858</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>81306.433247</v>
+        <v>81306.433246999994</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.585120</v>
+        <v>22.58512</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.686000</v>
+        <v>-194.68600000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>81317.545648</v>
+        <v>81317.545647999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.588207</v>
+        <v>22.588207000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.070000</v>
+        <v>-309.07</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>81328.465545</v>
+        <v>81328.465544999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.591240</v>
+        <v>22.591239999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-488.210000</v>
+        <v>-488.21</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>81339.361653</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.594267</v>
+        <v>22.594266999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1344.120000</v>
+        <v>1344.12</v>
       </c>
       <c r="BV10" s="1">
-        <v>-683.689000</v>
+        <v>-683.68899999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>81350.204230</v>
+        <v>81350.204230000003</v>
       </c>
       <c r="BY10" s="1">
         <v>22.597279</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1478.790000</v>
+        <v>1478.79</v>
       </c>
       <c r="CA10" s="1">
-        <v>-891.425000</v>
+        <v>-891.42499999999995</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>81362.438518</v>
+        <v>81362.438517999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.600677</v>
+        <v>22.600677000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.900000</v>
+        <v>1826.9</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1382.770000</v>
+        <v>-1382.77</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>81190.173481</v>
+        <v>81190.173481000005</v>
       </c>
       <c r="B11" s="1">
         <v>22.552826</v>
       </c>
       <c r="C11" s="1">
-        <v>906.712000</v>
+        <v>906.71199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.948000</v>
+        <v>-200.94800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>81201.288330</v>
+        <v>81201.288329999996</v>
       </c>
       <c r="G11" s="1">
         <v>22.555913</v>
       </c>
       <c r="H11" s="1">
-        <v>924.931000</v>
+        <v>924.93100000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.411000</v>
+        <v>-170.411</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>81211.781196</v>
+        <v>81211.781195999996</v>
       </c>
       <c r="L11" s="1">
-        <v>22.558828</v>
+        <v>22.558827999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>949.319000</v>
+        <v>949.31899999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.610000</v>
+        <v>-121.61</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>81222.312255</v>
+        <v>81222.312254999997</v>
       </c>
       <c r="Q11" s="1">
         <v>22.561753</v>
       </c>
       <c r="R11" s="1">
-        <v>956.461000</v>
+        <v>956.46100000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.219000</v>
+        <v>-105.21899999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>81232.731216</v>
       </c>
       <c r="V11" s="1">
-        <v>22.564648</v>
+        <v>22.564647999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>963.438000</v>
+        <v>963.43799999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.851000</v>
+        <v>-89.850999999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>81242.941860</v>
+        <v>81242.941860000006</v>
       </c>
       <c r="AA11" s="1">
         <v>22.567484</v>
       </c>
       <c r="AB11" s="1">
-        <v>970.808000</v>
+        <v>970.80799999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.847300</v>
+        <v>-77.847300000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>81253.107366</v>
+        <v>81253.107365999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.570308</v>
+        <v>22.570308000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>975.653000</v>
+        <v>975.65300000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.549200</v>
+        <v>-75.549199999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>81263.341847</v>
+        <v>81263.341847000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.573151</v>
+        <v>22.573150999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>983.118000</v>
+        <v>983.11800000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.849700</v>
+        <v>-79.849699999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>81273.692331</v>
+        <v>81273.692330999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.576026</v>
+        <v>22.576025999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>991.318000</v>
+        <v>991.31799999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.101000</v>
+        <v>-91.100999999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>81284.855825</v>
+        <v>81284.855825000006</v>
       </c>
       <c r="AU11" s="1">
         <v>22.579127</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.410000</v>
+        <v>-108.41</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>81295.830270</v>
+        <v>81295.830270000006</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.582175</v>
+        <v>22.582174999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.841000</v>
+        <v>-123.84099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>81306.795326</v>
+        <v>81306.795326000007</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.585221</v>
+        <v>22.585221000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.400000</v>
+        <v>1048.4000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.675000</v>
+        <v>-194.67500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>81317.965728</v>
+        <v>81317.965727999996</v>
       </c>
       <c r="BJ11" s="1">
         <v>22.588324</v>
       </c>
       <c r="BK11" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.060000</v>
+        <v>-309.06</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>81328.886177</v>
+        <v>81328.886176999993</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.591357</v>
+        <v>22.591356999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-488.219000</v>
+        <v>-488.21899999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>81339.772375</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.594381</v>
+        <v>22.594380999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1344.010000</v>
+        <v>1344.01</v>
       </c>
       <c r="BV11" s="1">
-        <v>-683.698000</v>
+        <v>-683.69799999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>81350.623812</v>
+        <v>81350.623812000005</v>
       </c>
       <c r="BY11" s="1">
         <v>22.597396</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1478.730000</v>
+        <v>1478.73</v>
       </c>
       <c r="CA11" s="1">
-        <v>-891.591000</v>
+        <v>-891.59100000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>81362.967285</v>
+        <v>81362.967285000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.600824</v>
+        <v>22.600823999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1827.610000</v>
+        <v>1827.61</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1383.850000</v>
+        <v>-1383.85</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>81190.854984</v>
+        <v>81190.854984000005</v>
       </c>
       <c r="B12" s="1">
-        <v>22.553015</v>
+        <v>22.553014999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>906.771000</v>
+        <v>906.77099999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.903000</v>
+        <v>-200.90299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>81201.635530</v>
+        <v>81201.63553</v>
       </c>
       <c r="G12" s="1">
-        <v>22.556010</v>
+        <v>22.556010000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>925.132000</v>
+        <v>925.13199999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.238000</v>
+        <v>-171.238</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>81212.125428</v>
+        <v>81212.125427999999</v>
       </c>
       <c r="L12" s="1">
-        <v>22.558924</v>
+        <v>22.558924000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>949.402000</v>
+        <v>949.40200000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.440000</v>
+        <v>-121.44</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>81222.660942</v>
+        <v>81222.660942000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.561850</v>
+        <v>22.56185</v>
       </c>
       <c r="R12" s="1">
-        <v>956.448000</v>
+        <v>956.44799999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.190000</v>
+        <v>-105.19</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>81233.383951</v>
+        <v>81233.383950999996</v>
       </c>
       <c r="V12" s="1">
         <v>22.564829</v>
       </c>
       <c r="W12" s="1">
-        <v>963.478000</v>
+        <v>963.47799999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.880200</v>
+        <v>-89.880200000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>81243.600546</v>
+        <v>81243.600546000001</v>
       </c>
       <c r="AA12" s="1">
         <v>22.567667</v>
       </c>
       <c r="AB12" s="1">
-        <v>970.870000</v>
+        <v>970.87</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.864000</v>
+        <v>-77.864000000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>81253.473909</v>
+        <v>81253.473908999993</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.570409</v>
+        <v>22.570409000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>975.745000</v>
+        <v>975.745</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.432100</v>
+        <v>-75.432100000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>81263.657767</v>
+        <v>81263.657766999997</v>
       </c>
       <c r="AK12" s="1">
         <v>22.573238</v>
       </c>
       <c r="AL12" s="1">
-        <v>983.127000</v>
+        <v>983.12699999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.810300</v>
+        <v>-79.810299999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>81274.053914</v>
+        <v>81274.053914000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.576126</v>
+        <v>22.576125999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>991.323000</v>
+        <v>991.32299999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.101900</v>
+        <v>-91.101900000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>81285.221370</v>
+        <v>81285.221369999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.579228</v>
+        <v>22.579228000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.421000</v>
+        <v>-108.42100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>81296.189906</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.582275</v>
+        <v>22.582274999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1009.550000</v>
+        <v>1009.55</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.862000</v>
+        <v>-123.86199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>81307.212462</v>
+        <v>81307.212461999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.585337</v>
+        <v>22.585336999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.400000</v>
+        <v>1048.4000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.677000</v>
+        <v>-194.67699999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>81318.317391</v>
+        <v>81318.317391000004</v>
       </c>
       <c r="BJ12" s="1">
         <v>22.588421</v>
       </c>
       <c r="BK12" s="1">
-        <v>1115.280000</v>
+        <v>1115.28</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.079000</v>
+        <v>-309.07900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>81329.283991</v>
+        <v>81329.283991000004</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.591468</v>
+        <v>22.591467999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-488.188000</v>
+        <v>-488.18799999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>81340.204355</v>
+        <v>81340.204354999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.594501</v>
+        <v>22.594501000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1344.020000</v>
+        <v>1344.02</v>
       </c>
       <c r="BV12" s="1">
-        <v>-683.792000</v>
+        <v>-683.79200000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>81351.045908</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.597513</v>
+        <v>22.597512999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1478.810000</v>
+        <v>1478.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-891.408000</v>
+        <v>-891.40800000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>81363.485571</v>
+        <v>81363.485570999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.600968</v>
+        <v>22.600968000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.400000</v>
+        <v>1828.4</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1382.820000</v>
+        <v>-1382.82</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>81191.199209</v>
+        <v>81191.199208999999</v>
       </c>
       <c r="B13" s="1">
-        <v>22.553111</v>
+        <v>22.553111000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>906.883000</v>
+        <v>906.88300000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.856000</v>
+        <v>-200.85599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>81201.988681</v>
+        <v>81201.988681000003</v>
       </c>
       <c r="G13" s="1">
-        <v>22.556108</v>
+        <v>22.556107999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>924.697000</v>
+        <v>924.697</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.784000</v>
+        <v>-170.78399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>81212.795024</v>
+        <v>81212.795024000006</v>
       </c>
       <c r="L13" s="1">
-        <v>22.559110</v>
+        <v>22.55911</v>
       </c>
       <c r="M13" s="1">
-        <v>949.426000</v>
+        <v>949.42600000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.491000</v>
+        <v>-121.491</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>81223.318675</v>
+        <v>81223.318675000002</v>
       </c>
       <c r="Q13" s="1">
         <v>22.562033</v>
       </c>
       <c r="R13" s="1">
-        <v>956.441000</v>
+        <v>956.44100000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.154000</v>
+        <v>-105.154</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>81233.764383</v>
+        <v>81233.764383000002</v>
       </c>
       <c r="V13" s="1">
-        <v>22.564935</v>
+        <v>22.564934999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>963.271000</v>
+        <v>963.27099999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.842900</v>
+        <v>-89.8429</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>81243.987425</v>
+        <v>81243.987424999999</v>
       </c>
       <c r="AA13" s="1">
         <v>22.567774</v>
       </c>
       <c r="AB13" s="1">
-        <v>970.826000</v>
+        <v>970.82600000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.821600</v>
+        <v>-77.821600000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>81253.817173</v>
+        <v>81253.817173000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.570505</v>
+        <v>22.570505000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>975.807000</v>
+        <v>975.80700000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.458400</v>
+        <v>-75.458399999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>81264.003975</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.573334</v>
+        <v>22.573333999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>983.139000</v>
+        <v>983.13900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.815100</v>
+        <v>-79.815100000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>81274.413513</v>
+        <v>81274.413513000007</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.576226</v>
+        <v>22.576225999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>991.321000</v>
+        <v>991.32100000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.095400</v>
+        <v>-91.095399999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>81285.654346</v>
+        <v>81285.654345999996</v>
       </c>
       <c r="AU13" s="1">
         <v>22.579348</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.419000</v>
+        <v>-108.419</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>81296.633292</v>
+        <v>81296.633291999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.582398</v>
+        <v>22.582398000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.842000</v>
+        <v>-123.842</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>81307.517601</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.585422</v>
+        <v>22.585422000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.390000</v>
+        <v>1048.3900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.667000</v>
+        <v>-194.667</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>81318.693358</v>
+        <v>81318.693358000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.588526</v>
+        <v>22.588526000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1115.300000</v>
+        <v>1115.3</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.084000</v>
+        <v>-309.084</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>81329.706555</v>
+        <v>81329.706554999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.591585</v>
+        <v>22.591584999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-488.233000</v>
+        <v>-488.233</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>81340.616066</v>
+        <v>81340.616066000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.594616</v>
+        <v>22.594615999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1344.010000</v>
+        <v>1344.01</v>
       </c>
       <c r="BV13" s="1">
-        <v>-683.808000</v>
+        <v>-683.80799999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>81351.492308</v>
+        <v>81351.492308000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.597637</v>
+        <v>22.597636999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1478.820000</v>
+        <v>1478.82</v>
       </c>
       <c r="CA13" s="1">
-        <v>-891.413000</v>
+        <v>-891.41300000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>81364.002403</v>
+        <v>81364.002403000006</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.601112</v>
+        <v>22.601112000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1827.150000</v>
+        <v>1827.15</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1382.340000</v>
+        <v>-1382.34</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>81191.540455</v>
+        <v>81191.540454999995</v>
       </c>
       <c r="B14" s="1">
-        <v>22.553206</v>
+        <v>22.553205999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>906.762000</v>
+        <v>906.76199999999994</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.874000</v>
+        <v>-200.874</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>81202.644392</v>
+        <v>81202.644392000002</v>
       </c>
       <c r="G14" s="1">
-        <v>22.556290</v>
+        <v>22.556290000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>924.621000</v>
+        <v>924.62099999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.326000</v>
+        <v>-170.32599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>81213.163050</v>
+        <v>81213.163050000003</v>
       </c>
       <c r="L14" s="1">
-        <v>22.559212</v>
+        <v>22.559211999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>949.308000</v>
+        <v>949.30799999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.607000</v>
+        <v>-121.607</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>81223.707500</v>
+        <v>81223.707500000004</v>
       </c>
       <c r="Q14" s="1">
         <v>22.562141</v>
       </c>
       <c r="R14" s="1">
-        <v>956.482000</v>
+        <v>956.48199999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.152000</v>
+        <v>-105.152</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>81234.106138</v>
+        <v>81234.106138000003</v>
       </c>
       <c r="V14" s="1">
-        <v>22.565029</v>
+        <v>22.565028999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>963.460000</v>
+        <v>963.46</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.827200</v>
+        <v>-89.827200000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>81244.340611</v>
+        <v>81244.340611000007</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.567872</v>
+        <v>22.567872000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>970.775000</v>
+        <v>970.77499999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.882700</v>
+        <v>-77.8827</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>81254.159381</v>
+        <v>81254.159381000005</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.570600</v>
+        <v>22.570599999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>975.789000</v>
+        <v>975.78899999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.385800</v>
+        <v>-75.385800000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>81264.429047</v>
+        <v>81264.429046999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.573453</v>
+        <v>22.573453000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>983.125000</v>
+        <v>983.125</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.822800</v>
+        <v>-79.822800000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>81274.835608</v>
+        <v>81274.835607999994</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.576343</v>
+        <v>22.576343000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>991.326000</v>
+        <v>991.32600000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.087700</v>
+        <v>-91.087699999999998</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>81285.949499</v>
+        <v>81285.949498999995</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.579430</v>
+        <v>22.579429999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.422000</v>
+        <v>-108.422</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>81296.910557</v>
+        <v>81296.910556999996</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.582475</v>
+        <v>22.582474999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>81307.876605</v>
+        <v>81307.876604999998</v>
       </c>
       <c r="BE14" s="1">
         <v>22.585521</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.689000</v>
+        <v>-194.68899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>81319.067380</v>
+        <v>81319.067379999993</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.588630</v>
+        <v>22.588629999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1115.310000</v>
+        <v>1115.31</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.074000</v>
+        <v>-309.07400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>81330.101344</v>
+        <v>81330.101343999995</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.591695</v>
+        <v>22.591695000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-488.212000</v>
+        <v>-488.21199999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>81341.047058</v>
+        <v>81341.047057999996</v>
       </c>
       <c r="BT14" s="1">
         <v>22.594735</v>
       </c>
       <c r="BU14" s="1">
-        <v>1344.000000</v>
+        <v>1344</v>
       </c>
       <c r="BV14" s="1">
-        <v>-683.835000</v>
+        <v>-683.83500000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>81351.923827</v>
+        <v>81351.923827000006</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.597757</v>
+        <v>22.597757000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1478.800000</v>
+        <v>1478.8</v>
       </c>
       <c r="CA14" s="1">
-        <v>-891.473000</v>
+        <v>-891.47299999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>81364.520754</v>
+        <v>81364.520753999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.601256</v>
+        <v>22.601255999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.920000</v>
+        <v>1826.92</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1382.200000</v>
+        <v>-1382.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>81192.209063</v>
+        <v>81192.209063000002</v>
       </c>
       <c r="B15" s="1">
-        <v>22.553391</v>
+        <v>22.553391000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>906.601000</v>
+        <v>906.601</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.889000</v>
+        <v>-200.88900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>81203.021848</v>
+        <v>81203.021848000004</v>
       </c>
       <c r="G15" s="1">
-        <v>22.556395</v>
+        <v>22.556394999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>924.832000</v>
+        <v>924.83199999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.842000</v>
+        <v>-170.84200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>81213.509271</v>
+        <v>81213.509271000003</v>
       </c>
       <c r="L15" s="1">
-        <v>22.559308</v>
+        <v>22.559308000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>949.371000</v>
+        <v>949.37099999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.612000</v>
+        <v>-121.61199999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>81224.055196</v>
+        <v>81224.055196000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.562238</v>
+        <v>22.562238000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>956.478000</v>
+        <v>956.47799999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.163000</v>
+        <v>-105.163</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>81234.446382</v>
+        <v>81234.446381999995</v>
       </c>
       <c r="V15" s="1">
-        <v>22.565124</v>
+        <v>22.565124000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>963.309000</v>
+        <v>963.30899999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.824300</v>
+        <v>-89.824299999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>81244.687778</v>
+        <v>81244.687778000007</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.567969</v>
+        <v>22.567969000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>970.806000</v>
+        <v>970.80600000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.889100</v>
+        <v>-77.889099999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>81254.577539</v>
+        <v>81254.577539000005</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.570716</v>
+        <v>22.570716000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>975.734000</v>
+        <v>975.73400000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.448400</v>
+        <v>-75.448400000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>81264.701851</v>
+        <v>81264.701851000005</v>
       </c>
       <c r="AK15" s="1">
         <v>22.573528</v>
       </c>
       <c r="AL15" s="1">
-        <v>983.121000</v>
+        <v>983.12099999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.838500</v>
+        <v>-79.838499999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>81275.132218</v>
+        <v>81275.132217999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.576426</v>
+        <v>22.576426000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>991.317000</v>
+        <v>991.31700000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.094300</v>
+        <v>-91.094300000000004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>81286.317497</v>
+        <v>81286.317496999996</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.579533</v>
+        <v>22.579533000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.250000</v>
+        <v>1001.25</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.413000</v>
+        <v>-108.413</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>81297.267179</v>
+        <v>81297.267179000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.582574</v>
+        <v>22.582574000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.849000</v>
+        <v>-123.849</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>81308.237209</v>
+        <v>81308.237208999999</v>
       </c>
       <c r="BE15" s="1">
         <v>22.585621</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.400000</v>
+        <v>1048.4000000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.676000</v>
+        <v>-194.67599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>81319.818819</v>
+        <v>81319.818818999993</v>
       </c>
       <c r="BJ15" s="1">
         <v>22.588839</v>
       </c>
       <c r="BK15" s="1">
-        <v>1115.320000</v>
+        <v>1115.32</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.079000</v>
+        <v>-309.07900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>81330.538815</v>
+        <v>81330.538815000007</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.591816</v>
+        <v>22.591816000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1223.380000</v>
+        <v>1223.3800000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-488.208000</v>
+        <v>-488.20800000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>81341.472625</v>
+        <v>81341.472624999995</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.594854</v>
+        <v>22.594854000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1344.010000</v>
+        <v>1344.01</v>
       </c>
       <c r="BV15" s="1">
-        <v>-683.850000</v>
+        <v>-683.85</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>81352.348898</v>
+        <v>81352.348897999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.597875</v>
+        <v>22.597874999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1478.770000</v>
+        <v>1478.77</v>
       </c>
       <c r="CA15" s="1">
-        <v>-891.497000</v>
+        <v>-891.49699999999996</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>81365.070289</v>
+        <v>81365.070288999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.601408</v>
+        <v>22.601407999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.350000</v>
+        <v>1828.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1382.210000</v>
+        <v>-1382.21</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>81192.565687</v>
+        <v>81192.565686999995</v>
       </c>
       <c r="B16" s="1">
-        <v>22.553490</v>
+        <v>22.55349</v>
       </c>
       <c r="C16" s="1">
-        <v>906.785000</v>
+        <v>906.78499999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.998000</v>
+        <v>-200.99799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>81203.366071</v>
+        <v>81203.366070999997</v>
       </c>
       <c r="G16" s="1">
-        <v>22.556491</v>
+        <v>22.556491000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>924.908000</v>
+        <v>924.90800000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.391000</v>
+        <v>-170.39099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>81213.855001</v>
+        <v>81213.855001000004</v>
       </c>
       <c r="L16" s="1">
-        <v>22.559404</v>
+        <v>22.559404000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>949.381000</v>
+        <v>949.38099999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.501000</v>
+        <v>-121.501</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>81224.404875</v>
+        <v>81224.404874999993</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.562335</v>
+        <v>22.562335000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>956.493000</v>
+        <v>956.49300000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.191000</v>
+        <v>-105.191</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>81234.879918</v>
+        <v>81234.879918000006</v>
       </c>
       <c r="V16" s="1">
         <v>22.565244</v>
       </c>
       <c r="W16" s="1">
-        <v>963.444000</v>
+        <v>963.44399999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.877600</v>
+        <v>-89.877600000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>81245.114337</v>
+        <v>81245.114337000006</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.568087</v>
+        <v>22.568086999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>970.879000</v>
+        <v>970.87900000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.963100</v>
+        <v>-77.963099999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>81254.857283</v>
+        <v>81254.857283000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.570794</v>
+        <v>22.570793999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>975.659000</v>
+        <v>975.65899999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.426100</v>
+        <v>-75.426100000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>81265.053014</v>
+        <v>81265.053014000005</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.573626</v>
+        <v>22.573626000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>983.134000</v>
+        <v>983.13400000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.815600</v>
+        <v>-79.815600000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>81275.492808</v>
+        <v>81275.492807999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.576526</v>
+        <v>22.576526000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>991.337000</v>
+        <v>991.33699999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.098900</v>
+        <v>-91.0989</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>81286.678617</v>
+        <v>81286.678616999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.579633</v>
+        <v>22.579633000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.416000</v>
+        <v>-108.416</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>81297.625303</v>
+        <v>81297.625302999993</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.582674</v>
+        <v>22.582674000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.843000</v>
+        <v>-123.843</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>81308.960365</v>
+        <v>81308.960365000006</v>
       </c>
       <c r="BE16" s="1">
         <v>22.585822</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.685000</v>
+        <v>-194.685</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>81320.195742</v>
+        <v>81320.195741999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>22.588943</v>
       </c>
       <c r="BK16" s="1">
-        <v>1115.300000</v>
+        <v>1115.3</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.038000</v>
+        <v>-309.03800000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>81330.920239</v>
+        <v>81330.920238999999</v>
       </c>
       <c r="BO16" s="1">
         <v>22.591922</v>
       </c>
       <c r="BP16" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-488.199000</v>
+        <v>-488.19900000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>81341.883312</v>
+        <v>81341.883312000005</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.594968</v>
+        <v>22.594968000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1344.090000</v>
+        <v>1344.09</v>
       </c>
       <c r="BV16" s="1">
-        <v>-683.928000</v>
+        <v>-683.928</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>81353.080001</v>
+        <v>81353.080000999995</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.598078</v>
+        <v>22.598078000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1478.630000</v>
+        <v>1478.63</v>
       </c>
       <c r="CA16" s="1">
-        <v>-891.426000</v>
+        <v>-891.42600000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>81365.918448</v>
+        <v>81365.918447999997</v>
       </c>
       <c r="CD16" s="1">
         <v>22.601644</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.000000</v>
+        <v>1827</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1382.460000</v>
+        <v>-1382.46</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>81192.907925</v>
+        <v>81192.907925000007</v>
       </c>
       <c r="B17" s="1">
-        <v>22.553586</v>
+        <v>22.553585999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>906.706000</v>
+        <v>906.70600000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-201.041000</v>
+        <v>-201.041</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>81203.707319</v>
+        <v>81203.707318999994</v>
       </c>
       <c r="G17" s="1">
-        <v>22.556585</v>
+        <v>22.556584999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>925.077000</v>
+        <v>925.077</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.696000</v>
+        <v>-170.696</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>81214.288473</v>
+        <v>81214.288472999993</v>
       </c>
       <c r="L17" s="1">
-        <v>22.559525</v>
+        <v>22.559525000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>949.275000</v>
+        <v>949.27499999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.639000</v>
+        <v>-121.639</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>81224.839403</v>
+        <v>81224.839403000005</v>
       </c>
       <c r="Q17" s="1">
         <v>22.562455</v>
       </c>
       <c r="R17" s="1">
-        <v>956.483000</v>
+        <v>956.48299999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.191000</v>
+        <v>-105.191</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>81235.159133</v>
+        <v>81235.159132999994</v>
       </c>
       <c r="V17" s="1">
-        <v>22.565322</v>
+        <v>22.565321999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>963.486000</v>
+        <v>963.48599999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.860200</v>
+        <v>-89.860200000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>81245.392097</v>
+        <v>81245.392097000004</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.568164</v>
+        <v>22.568163999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>970.849000</v>
+        <v>970.84900000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.899100</v>
+        <v>-77.899100000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>81255.200483</v>
+        <v>81255.200482999993</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.570889</v>
+        <v>22.570889000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>975.666000</v>
+        <v>975.66600000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.456000</v>
+        <v>-75.456000000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>81265.399717</v>
+        <v>81265.399716999993</v>
       </c>
       <c r="AK17" s="1">
         <v>22.573722</v>
       </c>
       <c r="AL17" s="1">
-        <v>983.131000</v>
+        <v>983.13099999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.838700</v>
+        <v>-79.838700000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>81275.857399</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.576627</v>
+        <v>22.576626999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>991.307000</v>
+        <v>991.30700000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.092800</v>
+        <v>-91.092799999999997</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>81287.410185</v>
+        <v>81287.410185000001</v>
       </c>
       <c r="AU17" s="1">
         <v>22.579836</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.431000</v>
+        <v>-108.431</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>81298.357386</v>
+        <v>81298.357386000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>22.582877</v>
       </c>
       <c r="BA17" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.864000</v>
+        <v>-123.864</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>81309.322971</v>
+        <v>81309.322971000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.585923</v>
+        <v>22.585923000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.400000</v>
+        <v>1048.4000000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.670000</v>
+        <v>-194.67</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>81320.569726</v>
+        <v>81320.569726000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.589047</v>
+        <v>22.589047000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1115.300000</v>
+        <v>1115.3</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.073000</v>
+        <v>-309.07299999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>81331.336878</v>
+        <v>81331.336878000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.592038</v>
+        <v>22.592037999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-488.228000</v>
+        <v>-488.22800000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>81342.626351</v>
+        <v>81342.626350999999</v>
       </c>
       <c r="BT17" s="1">
         <v>22.595174</v>
       </c>
       <c r="BU17" s="1">
-        <v>1344.090000</v>
+        <v>1344.09</v>
       </c>
       <c r="BV17" s="1">
-        <v>-683.892000</v>
+        <v>-683.89200000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>81353.195075</v>
+        <v>81353.195074999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.598110</v>
+        <v>22.598109999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1478.670000</v>
+        <v>1478.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-891.379000</v>
+        <v>-891.37900000000002</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>81366.154086</v>
+        <v>81366.154085999995</v>
       </c>
       <c r="CD17" s="1">
         <v>22.601709</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.330000</v>
+        <v>1827.33</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1383.580000</v>
+        <v>-1383.58</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>81193.441621</v>
+        <v>81193.441621000005</v>
       </c>
       <c r="B18" s="1">
-        <v>22.553734</v>
+        <v>22.553733999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>906.905000</v>
+        <v>906.90499999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.952000</v>
+        <v>-200.952</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>81204.134374</v>
+        <v>81204.134374000001</v>
       </c>
       <c r="G18" s="1">
         <v>22.556704</v>
       </c>
       <c r="H18" s="1">
-        <v>925.037000</v>
+        <v>925.03700000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-170.523000</v>
+        <v>-170.523</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>81214.547882</v>
+        <v>81214.547881999999</v>
       </c>
       <c r="L18" s="1">
         <v>22.559597</v>
       </c>
       <c r="M18" s="1">
-        <v>949.306000</v>
+        <v>949.30600000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.630000</v>
+        <v>-121.63</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>81225.114683</v>
+        <v>81225.114683000007</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.562532</v>
+        <v>22.562532000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>956.447000</v>
+        <v>956.447</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.142000</v>
+        <v>-105.142</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>81235.504349</v>
+        <v>81235.504348999995</v>
       </c>
       <c r="V18" s="1">
-        <v>22.565418</v>
+        <v>22.565418000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>963.441000</v>
+        <v>963.44100000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.812700</v>
+        <v>-89.812700000000007</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>81245.742768</v>
+        <v>81245.742767999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.568262</v>
+        <v>22.568262000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>970.801000</v>
+        <v>970.80100000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.935000</v>
+        <v>-77.935000000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>81255.545240</v>
+        <v>81255.545240000007</v>
       </c>
       <c r="AF18" s="1">
         <v>22.570985</v>
       </c>
       <c r="AG18" s="1">
-        <v>975.736000</v>
+        <v>975.73599999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.435600</v>
+        <v>-75.435599999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>81266.099573</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.573917</v>
+        <v>22.573917000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>983.154000</v>
+        <v>983.154</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.835800</v>
+        <v>-79.835800000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>81276.583510</v>
+        <v>81276.583509999997</v>
       </c>
       <c r="AP18" s="1">
         <v>22.576829</v>
       </c>
       <c r="AQ18" s="1">
-        <v>991.323000</v>
+        <v>991.32299999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.109600</v>
+        <v>-91.1096</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>81287.773256</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.579937</v>
+        <v>22.579937000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.445000</v>
+        <v>-108.44499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>81298.724921</v>
+        <v>81298.724921000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.582979</v>
+        <v>22.582979000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1009.580000</v>
+        <v>1009.58</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.849000</v>
+        <v>-123.849</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>81309.684027</v>
+        <v>81309.684026999996</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.586023</v>
+        <v>22.586023000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.681000</v>
+        <v>-194.68100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>81321.270075</v>
+        <v>81321.270074999993</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.589242</v>
+        <v>22.589241999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.071000</v>
+        <v>-309.07100000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>81332.146846</v>
+        <v>81332.146846000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.592263</v>
+        <v>22.592262999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1223.460000</v>
+        <v>1223.46</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-488.221000</v>
+        <v>-488.221</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>81342.741426</v>
+        <v>81342.741425999993</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.595206</v>
+        <v>22.595206000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1344.130000</v>
+        <v>1344.13</v>
       </c>
       <c r="BV18" s="1">
-        <v>-684.038000</v>
+        <v>-684.03800000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>81353.644450</v>
+        <v>81353.644450000007</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.598235</v>
+        <v>22.598234999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1479.100000</v>
+        <v>1479.1</v>
       </c>
       <c r="CA18" s="1">
-        <v>-891.625000</v>
+        <v>-891.625</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>81366.685761</v>
+        <v>81366.685761000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.601857</v>
+        <v>22.601856999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1828.170000</v>
+        <v>1828.17</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1382.560000</v>
+        <v>-1382.56</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>81193.951013</v>
+        <v>81193.951012999998</v>
       </c>
       <c r="B19" s="1">
-        <v>22.553875</v>
+        <v>22.553875000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>906.781000</v>
+        <v>906.78099999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.957000</v>
+        <v>-200.95699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>81204.399238</v>
+        <v>81204.399237999998</v>
       </c>
       <c r="G19" s="1">
-        <v>22.556778</v>
+        <v>22.556778000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>925.398000</v>
+        <v>925.39800000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.682000</v>
+        <v>-170.68199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>81214.893096</v>
       </c>
       <c r="L19" s="1">
-        <v>22.559693</v>
+        <v>22.559692999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>949.374000</v>
+        <v>949.37400000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.623000</v>
+        <v>-121.623</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>81225.461850</v>
+        <v>81225.461850000007</v>
       </c>
       <c r="Q19" s="1">
         <v>22.562628</v>
       </c>
       <c r="R19" s="1">
-        <v>956.494000</v>
+        <v>956.49400000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.141000</v>
+        <v>-105.14100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>81235.849564</v>
+        <v>81235.849564000004</v>
       </c>
       <c r="V19" s="1">
         <v>22.565514</v>
       </c>
       <c r="W19" s="1">
-        <v>963.455000</v>
+        <v>963.45500000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.755300</v>
+        <v>-89.755300000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>81246.286383</v>
+        <v>81246.286382999999</v>
       </c>
       <c r="AA19" s="1">
         <v>22.568413</v>
       </c>
       <c r="AB19" s="1">
-        <v>970.882000</v>
+        <v>970.88199999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.891100</v>
+        <v>-77.891099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>81256.227698</v>
+        <v>81256.227698000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.571174</v>
+        <v>22.571173999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>975.688000</v>
+        <v>975.68799999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.427400</v>
+        <v>-75.427400000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>81266.442804</v>
+        <v>81266.442804000006</v>
       </c>
       <c r="AK19" s="1">
         <v>22.574012</v>
       </c>
       <c r="AL19" s="1">
-        <v>983.121000</v>
+        <v>983.12099999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.831700</v>
+        <v>-79.831699999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>81276.960998</v>
+        <v>81276.960997999995</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.576934</v>
+        <v>22.576934000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>991.340000</v>
+        <v>991.34</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.114000</v>
+        <v>-91.114000000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>81288.137815</v>
+        <v>81288.137814999995</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.580038</v>
+        <v>22.580037999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.428000</v>
+        <v>-108.428</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>81299.417832</v>
+        <v>81299.417832000006</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.583172</v>
+        <v>22.583172000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.867000</v>
+        <v>-123.867</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>81310.352635</v>
+        <v>81310.352635000003</v>
       </c>
       <c r="BE19" s="1">
         <v>22.586209</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.671000</v>
+        <v>-194.67099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>81321.695642</v>
+        <v>81321.695642000006</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.589360</v>
+        <v>22.589359999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1115.280000</v>
+        <v>1115.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.067000</v>
+        <v>-309.06700000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>81332.571918</v>
+        <v>81332.571918000001</v>
       </c>
       <c r="BO19" s="1">
         <v>22.592381</v>
       </c>
       <c r="BP19" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-488.245000</v>
+        <v>-488.245</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>81343.180351</v>
+        <v>81343.180351000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.595328</v>
+        <v>22.595327999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1344.110000</v>
+        <v>1344.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-684.049000</v>
+        <v>-684.04899999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>81354.330417</v>
+        <v>81354.330417000005</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.598425</v>
+        <v>22.598424999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1478.720000</v>
+        <v>1478.72</v>
       </c>
       <c r="CA19" s="1">
-        <v>-891.547000</v>
+        <v>-891.54700000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>81367.285422</v>
+        <v>81367.285422000001</v>
       </c>
       <c r="CD19" s="1">
         <v>22.602024</v>
       </c>
       <c r="CE19" s="1">
-        <v>1827.940000</v>
+        <v>1827.94</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1383.440000</v>
+        <v>-1383.44</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>81194.274899</v>
+        <v>81194.274898999996</v>
       </c>
       <c r="B20" s="1">
-        <v>22.553965</v>
+        <v>22.553965000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>906.827000</v>
+        <v>906.827</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.949000</v>
+        <v>-200.94900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>81204.747963</v>
+        <v>81204.747963000002</v>
       </c>
       <c r="G20" s="1">
-        <v>22.556874</v>
+        <v>22.556874000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>925.046000</v>
+        <v>925.04600000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-170.255000</v>
+        <v>-170.255</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>81215.241289</v>
+        <v>81215.241288999998</v>
       </c>
       <c r="L20" s="1">
-        <v>22.559789</v>
+        <v>22.559788999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>949.303000</v>
+        <v>949.303</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.471000</v>
+        <v>-121.471</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>81225.811531</v>
+        <v>81225.811530999999</v>
       </c>
       <c r="Q20" s="1">
         <v>22.562725</v>
       </c>
       <c r="R20" s="1">
-        <v>956.498000</v>
+        <v>956.49800000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.174000</v>
+        <v>-105.17400000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>81236.533051</v>
+        <v>81236.533051000006</v>
       </c>
       <c r="V20" s="1">
         <v>22.565704</v>
       </c>
       <c r="W20" s="1">
-        <v>963.345000</v>
+        <v>963.34500000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.914900</v>
+        <v>-89.914900000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>81246.441670</v>
+        <v>81246.44167</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.568456</v>
+        <v>22.568456000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>970.928000</v>
+        <v>970.928</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.922300</v>
+        <v>-77.922300000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>81256.575889</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.571271</v>
+        <v>22.571270999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>975.818000</v>
+        <v>975.81799999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.589800</v>
+        <v>-75.589799999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>81266.793475</v>
+        <v>81266.793474999999</v>
       </c>
       <c r="AK20" s="1">
         <v>22.574109</v>
       </c>
       <c r="AL20" s="1">
-        <v>983.146000</v>
+        <v>983.14599999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.839100</v>
+        <v>-79.839100000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>81277.320178</v>
+        <v>81277.320177999994</v>
       </c>
       <c r="AP20" s="1">
         <v>22.577033</v>
       </c>
       <c r="AQ20" s="1">
-        <v>991.313000</v>
+        <v>991.31299999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.081700</v>
+        <v>-91.081699999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>81288.816838</v>
+        <v>81288.816837999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.580227</v>
+        <v>22.580227000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.424000</v>
+        <v>-108.42400000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>81299.825544</v>
+        <v>81299.825544000007</v>
       </c>
       <c r="AZ20" s="1">
         <v>22.583285</v>
       </c>
       <c r="BA20" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.862000</v>
+        <v>-123.86199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>81310.801513</v>
+        <v>81310.801512999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.586334</v>
+        <v>22.586334000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.400000</v>
+        <v>1048.4000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.667000</v>
+        <v>-194.667</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>81322.070619</v>
+        <v>81322.070619000006</v>
       </c>
       <c r="BJ20" s="1">
         <v>22.589464</v>
       </c>
       <c r="BK20" s="1">
-        <v>1115.280000</v>
+        <v>1115.28</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.071000</v>
+        <v>-309.07100000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>81332.972189</v>
+        <v>81332.972188999993</v>
       </c>
       <c r="BO20" s="1">
         <v>22.592492</v>
       </c>
       <c r="BP20" s="1">
-        <v>1223.460000</v>
+        <v>1223.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-488.217000</v>
+        <v>-488.21699999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>81343.594030</v>
+        <v>81343.594029999993</v>
       </c>
       <c r="BT20" s="1">
         <v>22.595443</v>
       </c>
       <c r="BU20" s="1">
-        <v>1344.140000</v>
+        <v>1344.14</v>
       </c>
       <c r="BV20" s="1">
-        <v>-683.991000</v>
+        <v>-683.99099999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>81354.800127</v>
+        <v>81354.800126999995</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.598556</v>
+        <v>22.598555999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1478.780000</v>
+        <v>1478.78</v>
       </c>
       <c r="CA20" s="1">
-        <v>-891.394000</v>
+        <v>-891.39400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>81367.765054</v>
+        <v>81367.765054000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.602157</v>
+        <v>22.602156999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1828.080000</v>
+        <v>1828.08</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1383.880000</v>
+        <v>-1383.88</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>81194.615651</v>
       </c>
       <c r="B21" s="1">
-        <v>22.554060</v>
+        <v>22.55406</v>
       </c>
       <c r="C21" s="1">
-        <v>906.848000</v>
+        <v>906.84799999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-201.055000</v>
+        <v>-201.05500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>81205.093315</v>
+        <v>81205.093315000006</v>
       </c>
       <c r="G21" s="1">
-        <v>22.556970</v>
+        <v>22.55697</v>
       </c>
       <c r="H21" s="1">
-        <v>925.035000</v>
+        <v>925.03499999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.968000</v>
+        <v>-170.96799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>81215.934694</v>
+        <v>81215.934693999996</v>
       </c>
       <c r="L21" s="1">
-        <v>22.559982</v>
+        <v>22.559982000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>949.363000</v>
+        <v>949.36300000000006</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.609000</v>
+        <v>-121.60899999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>81226.507915</v>
+        <v>81226.507914999995</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.562919</v>
+        <v>22.562919000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>956.497000</v>
+        <v>956.49699999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.197000</v>
+        <v>-105.197</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>81236.877275</v>
+        <v>81236.877275000006</v>
       </c>
       <c r="V21" s="1">
-        <v>22.565799</v>
+        <v>22.565798999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>963.371000</v>
+        <v>963.37099999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.788400</v>
+        <v>-89.788399999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>81246.788333</v>
+        <v>81246.788333000004</v>
       </c>
       <c r="AA21" s="1">
         <v>22.568552</v>
       </c>
       <c r="AB21" s="1">
-        <v>970.838000</v>
+        <v>970.83799999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.865700</v>
+        <v>-77.865700000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>81256.917137</v>
+        <v>81256.917136999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.571366</v>
+        <v>22.571366000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>975.808000</v>
+        <v>975.80799999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.395600</v>
+        <v>-75.395600000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>81267.458115</v>
+        <v>81267.458115000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.574294</v>
+        <v>22.574293999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>983.158000</v>
+        <v>983.15800000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.821000</v>
+        <v>-79.820999999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>81277.993183</v>
+        <v>81277.993182999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.577220</v>
+        <v>22.577220000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>991.337000</v>
+        <v>991.33699999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.100000</v>
+        <v>-91.1</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>81289.230536</v>
+        <v>81289.230536000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.580342</v>
+        <v>22.580342000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.250000</v>
+        <v>1001.25</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.397000</v>
+        <v>-108.39700000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>81300.180183</v>
+        <v>81300.180183000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.583383</v>
+        <v>22.583383000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.858000</v>
+        <v>-123.858</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>81311.161113</v>
+        <v>81311.161112999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.586434</v>
+        <v>22.586434000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.680000</v>
+        <v>-194.68</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>81322.445595</v>
+        <v>81322.445594999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>22.589568</v>
       </c>
       <c r="BK21" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.087000</v>
+        <v>-309.08699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>81333.402220</v>
+        <v>81333.402220000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.592612</v>
+        <v>22.592611999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-488.245000</v>
+        <v>-488.245</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>81344.024045</v>
+        <v>81344.024044999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.595562</v>
+        <v>22.595562000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1344.120000</v>
+        <v>1344.12</v>
       </c>
       <c r="BV21" s="1">
-        <v>-684.079000</v>
+        <v>-684.07899999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>81355.242063</v>
+        <v>81355.242062999998</v>
       </c>
       <c r="BY21" s="1">
         <v>22.598678</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1478.890000</v>
+        <v>1478.89</v>
       </c>
       <c r="CA21" s="1">
-        <v>-891.394000</v>
+        <v>-891.39400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>81368.286880</v>
+        <v>81368.28688</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.602302</v>
+        <v>22.602302000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.200000</v>
+        <v>1828.2</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1382.470000</v>
+        <v>-1382.47</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>81195.300130</v>
+        <v>81195.300130000003</v>
       </c>
       <c r="B22" s="1">
-        <v>22.554250</v>
+        <v>22.55425</v>
       </c>
       <c r="C22" s="1">
-        <v>906.819000</v>
+        <v>906.81899999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.920000</v>
+        <v>-200.92</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>81205.785092</v>
+        <v>81205.785092000006</v>
       </c>
       <c r="G22" s="1">
-        <v>22.557163</v>
+        <v>22.557162999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>925.136000</v>
+        <v>925.13599999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-170.885000</v>
+        <v>-170.88499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>81216.284870</v>
+        <v>81216.284870000003</v>
       </c>
       <c r="L22" s="1">
-        <v>22.560079</v>
+        <v>22.560079000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>949.359000</v>
+        <v>949.35900000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.549000</v>
+        <v>-121.54900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>81226.858088</v>
+        <v>81226.858087999994</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.563016</v>
+        <v>22.563016000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>956.489000</v>
+        <v>956.48900000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.226000</v>
+        <v>-105.226</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>81237.224474</v>
+        <v>81237.224474000002</v>
       </c>
       <c r="V22" s="1">
-        <v>22.565896</v>
+        <v>22.565895999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>963.348000</v>
+        <v>963.34799999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.702000</v>
+        <v>-89.701999999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>81247.446055</v>
+        <v>81247.446054999993</v>
       </c>
       <c r="AA22" s="1">
         <v>22.568735</v>
       </c>
       <c r="AB22" s="1">
-        <v>970.869000</v>
+        <v>970.86900000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.862300</v>
+        <v>-77.862300000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>81257.575823</v>
+        <v>81257.575823000006</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.571549</v>
+        <v>22.571549000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>975.809000</v>
+        <v>975.80899999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.433900</v>
+        <v>-75.433899999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>81267.837555</v>
+        <v>81267.837555000006</v>
       </c>
       <c r="AK22" s="1">
         <v>22.574399</v>
       </c>
       <c r="AL22" s="1">
-        <v>983.141000</v>
+        <v>983.14099999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.836500</v>
+        <v>-79.836500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>81278.398373</v>
+        <v>81278.398373000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.577333</v>
+        <v>22.577332999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>991.337000</v>
+        <v>991.33699999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.120400</v>
+        <v>-91.120400000000004</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>81289.594565</v>
+        <v>81289.594565000007</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.580443</v>
+        <v>22.580442999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.412000</v>
+        <v>-108.41200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>81300.537831</v>
+        <v>81300.537830999994</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.583483</v>
+        <v>22.583483000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.843000</v>
+        <v>-123.843</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>81311.522696</v>
@@ -5786,739 +6202,739 @@
         <v>22.586534</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.430000</v>
+        <v>1048.43</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.685000</v>
+        <v>-194.685</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>81322.867691</v>
+        <v>81322.867691000007</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.589685</v>
+        <v>22.589684999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1115.300000</v>
+        <v>1115.3</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.076000</v>
+        <v>-309.07600000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>81333.790091</v>
+        <v>81333.790091000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.592719</v>
+        <v>22.592718999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-488.228000</v>
+        <v>-488.22800000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>81344.454077</v>
+        <v>81344.454077000002</v>
       </c>
       <c r="BT22" s="1">
         <v>22.595682</v>
       </c>
       <c r="BU22" s="1">
-        <v>1344.240000</v>
+        <v>1344.24</v>
       </c>
       <c r="BV22" s="1">
-        <v>-684.073000</v>
+        <v>-684.07299999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>81355.674574</v>
+        <v>81355.674574000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.598798</v>
+        <v>22.598797999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1478.770000</v>
+        <v>1478.77</v>
       </c>
       <c r="CA22" s="1">
-        <v>-891.498000</v>
+        <v>-891.49800000000005</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>81368.800733</v>
+        <v>81368.800732999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.602445</v>
+        <v>22.602444999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.460000</v>
+        <v>1828.46</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1382.640000</v>
+        <v>-1382.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>81195.640385</v>
+        <v>81195.640385000006</v>
       </c>
       <c r="B23" s="1">
-        <v>22.554345</v>
+        <v>22.554345000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>906.814000</v>
+        <v>906.81399999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.990000</v>
+        <v>-200.99</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>81206.129283</v>
+        <v>81206.129283000002</v>
       </c>
       <c r="G23" s="1">
-        <v>22.557258</v>
+        <v>22.557258000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>925.190000</v>
+        <v>925.19</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.283000</v>
+        <v>-170.28299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>81216.633089</v>
+        <v>81216.633088999995</v>
       </c>
       <c r="L23" s="1">
-        <v>22.560176</v>
+        <v>22.560175999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>949.479000</v>
+        <v>949.47900000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.594000</v>
+        <v>-121.59399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>81227.207925</v>
+        <v>81227.207924999995</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.563113</v>
+        <v>22.563113000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>956.474000</v>
+        <v>956.47400000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.194000</v>
+        <v>-105.194</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>81237.889610</v>
+        <v>81237.889609999998</v>
       </c>
       <c r="V23" s="1">
-        <v>22.566080</v>
+        <v>22.566079999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>963.451000</v>
+        <v>963.45100000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.888600</v>
+        <v>-89.888599999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>81247.835390</v>
+        <v>81247.835389999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.568843</v>
+        <v>22.568843000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>970.857000</v>
+        <v>970.85699999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.822200</v>
+        <v>-77.822199999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>81257.945839</v>
+        <v>81257.945839000007</v>
       </c>
       <c r="AF23" s="1">
         <v>22.571652</v>
       </c>
       <c r="AG23" s="1">
-        <v>975.636000</v>
+        <v>975.63599999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.386500</v>
+        <v>-75.386499999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>81268.182274</v>
+        <v>81268.182274000006</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.574495</v>
+        <v>22.574494999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>983.151000</v>
+        <v>983.15099999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.838600</v>
+        <v>-79.8386</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>81278.784755</v>
+        <v>81278.784755000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.577440</v>
+        <v>22.577439999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>991.325000</v>
+        <v>991.32500000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.096300</v>
+        <v>-91.096299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>81289.958629</v>
+        <v>81289.958629000001</v>
       </c>
       <c r="AU23" s="1">
         <v>22.580544</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.423000</v>
+        <v>-108.423</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>81300.961382</v>
+        <v>81300.961381999994</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.583600</v>
+        <v>22.583600000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>81311.945320</v>
+        <v>81311.945319999999</v>
       </c>
       <c r="BE23" s="1">
         <v>22.586651</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.430000</v>
+        <v>1048.43</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.685000</v>
+        <v>-194.685</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>81323.217866</v>
+        <v>81323.217866000006</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.589783</v>
+        <v>22.589783000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.065000</v>
+        <v>-309.065</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>81334.210731</v>
+        <v>81334.210730999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.592836</v>
+        <v>22.592835999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-488.221000</v>
+        <v>-488.221</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>81344.864143</v>
+        <v>81344.864142999999</v>
       </c>
       <c r="BT23" s="1">
         <v>22.595796</v>
       </c>
       <c r="BU23" s="1">
-        <v>1344.240000</v>
+        <v>1344.24</v>
       </c>
       <c r="BV23" s="1">
-        <v>-684.163000</v>
+        <v>-684.16300000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>81356.097198</v>
+        <v>81356.097198000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.598916</v>
+        <v>22.598915999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1478.710000</v>
+        <v>1478.71</v>
       </c>
       <c r="CA23" s="1">
-        <v>-891.383000</v>
+        <v>-891.38300000000004</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>81369.352747</v>
+        <v>81369.352746999997</v>
       </c>
       <c r="CD23" s="1">
         <v>22.602598</v>
       </c>
       <c r="CE23" s="1">
-        <v>1828.430000</v>
+        <v>1828.43</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1383.530000</v>
+        <v>-1383.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>81195.991056</v>
+        <v>81195.991055999999</v>
       </c>
       <c r="B24" s="1">
-        <v>22.554442</v>
+        <v>22.554442000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>906.682000</v>
+        <v>906.68200000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.886000</v>
+        <v>-200.886</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>81206.476981</v>
       </c>
       <c r="G24" s="1">
-        <v>22.557355</v>
+        <v>22.557355000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>924.612000</v>
+        <v>924.61199999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.688000</v>
+        <v>-170.68799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>81217.288810</v>
+        <v>81217.288809999998</v>
       </c>
       <c r="L24" s="1">
-        <v>22.560358</v>
+        <v>22.560358000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>949.324000</v>
+        <v>949.32399999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.838000</v>
+        <v>-121.83799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>81227.866492</v>
+        <v>81227.866492000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.563296</v>
+        <v>22.563296000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>956.494000</v>
+        <v>956.49400000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.147000</v>
+        <v>-105.14700000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>81238.257643</v>
+        <v>81238.257643000004</v>
       </c>
       <c r="V24" s="1">
-        <v>22.566183</v>
+        <v>22.566182999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>963.374000</v>
+        <v>963.37400000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.857100</v>
+        <v>-89.857100000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>81248.181132</v>
+        <v>81248.181131999998</v>
       </c>
       <c r="AA24" s="1">
         <v>22.568939</v>
       </c>
       <c r="AB24" s="1">
-        <v>970.849000</v>
+        <v>970.84900000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.923800</v>
+        <v>-77.9238</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>81258.293038</v>
+        <v>81258.293038000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.571748</v>
+        <v>22.571747999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>975.656000</v>
+        <v>975.65599999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.476500</v>
+        <v>-75.476500000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>81268.536417</v>
+        <v>81268.536416999996</v>
       </c>
       <c r="AK24" s="1">
         <v>22.574593</v>
       </c>
       <c r="AL24" s="1">
-        <v>983.168000</v>
+        <v>983.16800000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.816200</v>
+        <v>-79.816199999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>81279.144851</v>
+        <v>81279.144851000005</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.577540</v>
+        <v>22.577539999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>991.330000</v>
+        <v>991.33</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.093400</v>
+        <v>-91.093400000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>81290.389156</v>
+        <v>81290.389156000005</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.580664</v>
+        <v>22.580663999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.250000</v>
+        <v>1001.25</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>81301.258982</v>
+        <v>81301.258981999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.583683</v>
+        <v>22.583683000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1009.570000</v>
+        <v>1009.57</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.846000</v>
+        <v>-123.846</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>81312.242923</v>
+        <v>81312.242922999998</v>
       </c>
       <c r="BE24" s="1">
         <v>22.586734</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.410000</v>
+        <v>1048.4100000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.695000</v>
+        <v>-194.69499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>81323.590857</v>
+        <v>81323.590857000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>22.589886</v>
       </c>
       <c r="BK24" s="1">
-        <v>1115.300000</v>
+        <v>1115.3</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.077000</v>
+        <v>-309.077</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>81334.608522</v>
+        <v>81334.608521999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.592947</v>
+        <v>22.592946999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-488.213000</v>
+        <v>-488.21300000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>81345.294797</v>
+        <v>81345.294796999995</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.595915</v>
+        <v>22.595915000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1344.280000</v>
+        <v>1344.28</v>
       </c>
       <c r="BV24" s="1">
-        <v>-684.115000</v>
+        <v>-684.11500000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>81356.529183</v>
+        <v>81356.529183000006</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.599036</v>
+        <v>22.599036000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1478.750000</v>
+        <v>1478.75</v>
       </c>
       <c r="CA24" s="1">
-        <v>-891.450000</v>
+        <v>-891.45</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>81369.882507</v>
+        <v>81369.882507000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.602745</v>
+        <v>22.602744999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.300000</v>
+        <v>1828.3</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1382.170000</v>
+        <v>-1382.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>81196.659664</v>
+        <v>81196.659664000006</v>
       </c>
       <c r="B25" s="1">
-        <v>22.554628</v>
+        <v>22.554628000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>906.573000</v>
+        <v>906.57299999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.965000</v>
+        <v>-200.965</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>81207.130210</v>
+        <v>81207.130210000003</v>
       </c>
       <c r="G25" s="1">
-        <v>22.557536</v>
+        <v>22.557535999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>924.627000</v>
+        <v>924.62699999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-170.432000</v>
+        <v>-170.43199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>81217.664740</v>
+        <v>81217.664739999993</v>
       </c>
       <c r="L25" s="1">
-        <v>22.560462</v>
+        <v>22.560462000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>949.267000</v>
+        <v>949.26700000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.612000</v>
+        <v>-121.61199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>81228.268712</v>
+        <v>81228.268712000005</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.563408</v>
+        <v>22.563407999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>956.525000</v>
+        <v>956.52499999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.143000</v>
+        <v>-105.143</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>81238.609304</v>
+        <v>81238.609303999998</v>
       </c>
       <c r="V25" s="1">
-        <v>22.566280</v>
+        <v>22.566279999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>963.424000</v>
+        <v>963.42399999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.916300</v>
+        <v>-89.916300000000007</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>81248.531804</v>
+        <v>81248.531803999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.569037</v>
+        <v>22.569037000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>970.824000</v>
+        <v>970.82399999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.933700</v>
+        <v>-77.933700000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>81258.643710</v>
+        <v>81258.643710000004</v>
       </c>
       <c r="AF25" s="1">
         <v>22.571845</v>
       </c>
       <c r="AG25" s="1">
-        <v>975.747000</v>
+        <v>975.74699999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.516100</v>
+        <v>-75.516099999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>81268.960992</v>
+        <v>81268.960991999993</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.574711</v>
+        <v>22.574711000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>983.137000</v>
+        <v>983.13699999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.842100</v>
+        <v>-79.842100000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>81279.582819</v>
+        <v>81279.582819000003</v>
       </c>
       <c r="AP25" s="1">
         <v>22.577662</v>
       </c>
       <c r="AQ25" s="1">
-        <v>991.317000</v>
+        <v>991.31700000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.091900</v>
+        <v>-91.091899999999995</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>81290.691219</v>
@@ -6527,255 +6943,255 @@
         <v>22.580748</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.418000</v>
+        <v>-108.41800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>81301.616599</v>
+        <v>81301.616599000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.583782</v>
+        <v>22.583781999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1009.560000</v>
+        <v>1009.56</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.856000</v>
+        <v>-123.85599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>81312.603516</v>
+        <v>81312.603516000003</v>
       </c>
       <c r="BE25" s="1">
         <v>22.586834</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.420000</v>
+        <v>1048.42</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.673000</v>
+        <v>-194.673</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>81323.969304</v>
+        <v>81323.969303999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.589991</v>
+        <v>22.589991000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1115.300000</v>
+        <v>1115.3</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.061000</v>
+        <v>-309.06099999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>81335.037529</v>
+        <v>81335.037528999994</v>
       </c>
       <c r="BO25" s="1">
         <v>22.593066</v>
       </c>
       <c r="BP25" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-488.221000</v>
+        <v>-488.221</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>81345.723835</v>
+        <v>81345.723834999997</v>
       </c>
       <c r="BT25" s="1">
         <v>22.596034</v>
       </c>
       <c r="BU25" s="1">
-        <v>1344.290000</v>
+        <v>1344.29</v>
       </c>
       <c r="BV25" s="1">
-        <v>-684.171000</v>
+        <v>-684.17100000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>81356.943340</v>
+        <v>81356.943339999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.599151</v>
+        <v>22.599150999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1478.900000</v>
+        <v>1478.9</v>
       </c>
       <c r="CA25" s="1">
-        <v>-891.545000</v>
+        <v>-891.54499999999996</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>81370.398843</v>
+        <v>81370.398843000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.602889</v>
+        <v>22.602889000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.970000</v>
+        <v>1826.97</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1382.790000</v>
+        <v>-1382.79</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>81197.017776</v>
+        <v>81197.017775999993</v>
       </c>
       <c r="B26" s="1">
         <v>22.554727</v>
       </c>
       <c r="C26" s="1">
-        <v>906.861000</v>
+        <v>906.86099999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.918000</v>
+        <v>-200.91800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>81207.506675</v>
+        <v>81207.506674999997</v>
       </c>
       <c r="G26" s="1">
         <v>22.557641</v>
       </c>
       <c r="H26" s="1">
-        <v>925.225000</v>
+        <v>925.22500000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.496000</v>
+        <v>-170.49600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>81218.013428</v>
+        <v>81218.013428000006</v>
       </c>
       <c r="L26" s="1">
-        <v>22.560559</v>
+        <v>22.560559000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>949.367000</v>
+        <v>949.36699999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.580000</v>
+        <v>-121.58</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>81228.598549</v>
+        <v>81228.598549000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.563500</v>
+        <v>22.563500000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>956.563000</v>
+        <v>956.56299999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.164000</v>
+        <v>-105.164</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>81238.950056</v>
+        <v>81238.950056000001</v>
       </c>
       <c r="V26" s="1">
-        <v>22.566375</v>
+        <v>22.566375000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>963.376000</v>
+        <v>963.37599999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.852600</v>
+        <v>-89.852599999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>81248.960811</v>
+        <v>81248.960810999997</v>
       </c>
       <c r="AA26" s="1">
         <v>22.569156</v>
       </c>
       <c r="AB26" s="1">
-        <v>970.931000</v>
+        <v>970.93100000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.839300</v>
+        <v>-77.839299999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>81259.064813</v>
+        <v>81259.064813000005</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.571962</v>
+        <v>22.571961999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>975.686000</v>
+        <v>975.68600000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.335100</v>
+        <v>-75.335099999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>81269.239280</v>
+        <v>81269.239279999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.574789</v>
+        <v>22.574788999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>983.143000</v>
+        <v>983.14300000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.812900</v>
+        <v>-79.812899999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>81279.863059</v>
+        <v>81279.863058999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.577740</v>
+        <v>22.577739999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>991.332000</v>
+        <v>991.33199999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.086300</v>
+        <v>-91.086299999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>81291.053795</v>
@@ -6784,120 +7200,121 @@
         <v>22.580848</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>81301.975702</v>
+        <v>81301.975701999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.583882</v>
+        <v>22.583881999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1009.550000</v>
+        <v>1009.55</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.844000</v>
+        <v>-123.84399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>81312.969030</v>
+        <v>81312.969029999993</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.586936</v>
+        <v>22.586936000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.430000</v>
+        <v>1048.43</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.675000</v>
+        <v>-194.67500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>81324.717772</v>
+        <v>81324.717772000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.590199</v>
+        <v>22.590198999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1115.290000</v>
+        <v>1115.29</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.068000</v>
+        <v>-309.06799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>81335.426393</v>
+        <v>81335.426393000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.593174</v>
+        <v>22.593174000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-488.223000</v>
+        <v>-488.22300000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>81346.137500</v>
+        <v>81346.137499999997</v>
       </c>
       <c r="BT26" s="1">
         <v>22.596149</v>
       </c>
       <c r="BU26" s="1">
-        <v>1344.380000</v>
+        <v>1344.38</v>
       </c>
       <c r="BV26" s="1">
-        <v>-684.102000</v>
+        <v>-684.10199999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>81357.359484</v>
+        <v>81357.359484000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.599267</v>
+        <v>22.599267000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1478.740000</v>
+        <v>1478.74</v>
       </c>
       <c r="CA26" s="1">
-        <v>-891.465000</v>
+        <v>-891.46500000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>81371.240522</v>
+        <v>81371.240521999993</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.603122</v>
+        <v>22.603121999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1827.850000</v>
+        <v>1827.85</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1383.910000</v>
+        <v>-1383.91</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>